--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/算法学习.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/算法学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE92B9E-E4A2-48A6-A028-15A1A0748F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D2F3E-6CAD-40D5-BF9C-D5E9E0D1A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -407,13 +407,54 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">TODAY()</f>
         <v>44578</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44579</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44580</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44581</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
